--- a/inst/extdata/RiverBasinNames.xlsx
+++ b/inst/extdata/RiverBasinNames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beier\Documents\Modelle\PIK_PIAM\mrwaterPlots\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Mississippi</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>Guadalquivir</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,6 +523,14 @@
         <v>29805</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>24809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
